--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf11</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.44864752238098</v>
+        <v>1.604474</v>
       </c>
       <c r="H2">
-        <v>1.44864752238098</v>
+        <v>4.813422</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9077880937234966</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9077880937234966</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.33050152428109</v>
+        <v>1.657081333333333</v>
       </c>
       <c r="N2">
-        <v>1.33050152428109</v>
+        <v>4.971244</v>
       </c>
       <c r="O2">
-        <v>0.06542907407387052</v>
+        <v>0.07392147563279797</v>
       </c>
       <c r="P2">
-        <v>0.06542907407387052</v>
+        <v>0.07392147563279798</v>
       </c>
       <c r="Q2">
-        <v>1.927427736673919</v>
+        <v>2.658743915218667</v>
       </c>
       <c r="R2">
-        <v>1.927427736673919</v>
+        <v>23.928695236968</v>
       </c>
       <c r="S2">
-        <v>0.06542907407387052</v>
+        <v>0.06710503544992556</v>
       </c>
       <c r="T2">
-        <v>0.06542907407387052</v>
+        <v>0.06710503544992558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.44864752238098</v>
+        <v>1.604474</v>
       </c>
       <c r="H3">
-        <v>1.44864752238098</v>
+        <v>4.813422</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9077880937234966</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9077880937234966</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6604120280054</v>
+        <v>19.80213966666667</v>
       </c>
       <c r="N3">
-        <v>18.6604120280054</v>
+        <v>59.406419</v>
       </c>
       <c r="O3">
-        <v>0.9176490658205122</v>
+        <v>0.8833624248860619</v>
       </c>
       <c r="P3">
-        <v>0.9176490658205122</v>
+        <v>0.883362424886062</v>
       </c>
       <c r="Q3">
-        <v>27.03235965097826</v>
+        <v>31.77201823953533</v>
       </c>
       <c r="R3">
-        <v>27.03235965097826</v>
+        <v>285.948164155818</v>
       </c>
       <c r="S3">
-        <v>0.9176490658205122</v>
+        <v>0.8019058917542835</v>
       </c>
       <c r="T3">
-        <v>0.9176490658205122</v>
+        <v>0.8019058917542836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.604474</v>
+      </c>
+      <c r="H4">
+        <v>4.813422</v>
+      </c>
+      <c r="I4">
+        <v>0.9077880937234966</v>
+      </c>
+      <c r="J4">
+        <v>0.9077880937234966</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.9575573333333333</v>
+      </c>
+      <c r="N4">
+        <v>2.872672</v>
+      </c>
+      <c r="O4">
+        <v>0.04271609948114013</v>
+      </c>
+      <c r="P4">
+        <v>0.04271609948114013</v>
+      </c>
+      <c r="Q4">
+        <v>1.536375844842667</v>
+      </c>
+      <c r="R4">
+        <v>13.827382603584</v>
+      </c>
+      <c r="S4">
+        <v>0.03877716651928743</v>
+      </c>
+      <c r="T4">
+        <v>0.03877716651928743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1629803333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.488941</v>
+      </c>
+      <c r="I5">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="J5">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.657081333333333</v>
+      </c>
+      <c r="N5">
+        <v>4.971244</v>
+      </c>
+      <c r="O5">
+        <v>0.07392147563279797</v>
+      </c>
+      <c r="P5">
+        <v>0.07392147563279798</v>
+      </c>
+      <c r="Q5">
+        <v>0.2700716680671111</v>
+      </c>
+      <c r="R5">
+        <v>2.430645012604</v>
+      </c>
+      <c r="S5">
+        <v>0.006816440182872406</v>
+      </c>
+      <c r="T5">
+        <v>0.006816440182872406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.44864752238098</v>
-      </c>
-      <c r="H4">
-        <v>1.44864752238098</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.344106362238533</v>
-      </c>
-      <c r="N4">
-        <v>0.344106362238533</v>
-      </c>
-      <c r="O4">
-        <v>0.01692186010561724</v>
-      </c>
-      <c r="P4">
-        <v>0.01692186010561724</v>
-      </c>
-      <c r="Q4">
-        <v>0.4984888290923829</v>
-      </c>
-      <c r="R4">
-        <v>0.4984888290923829</v>
-      </c>
-      <c r="S4">
-        <v>0.01692186010561724</v>
-      </c>
-      <c r="T4">
-        <v>0.01692186010561724</v>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1629803333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.488941</v>
+      </c>
+      <c r="I6">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="J6">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.80213966666667</v>
+      </c>
+      <c r="N6">
+        <v>59.406419</v>
+      </c>
+      <c r="O6">
+        <v>0.8833624248860619</v>
+      </c>
+      <c r="P6">
+        <v>0.883362424886062</v>
+      </c>
+      <c r="Q6">
+        <v>3.227359323586556</v>
+      </c>
+      <c r="R6">
+        <v>29.046233912279</v>
+      </c>
+      <c r="S6">
+        <v>0.08145653313177842</v>
+      </c>
+      <c r="T6">
+        <v>0.08145653313177843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1629803333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.488941</v>
+      </c>
+      <c r="I7">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="J7">
+        <v>0.09221190627650352</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9575573333333333</v>
+      </c>
+      <c r="N7">
+        <v>2.872672</v>
+      </c>
+      <c r="O7">
+        <v>0.04271609948114013</v>
+      </c>
+      <c r="P7">
+        <v>0.04271609948114013</v>
+      </c>
+      <c r="Q7">
+        <v>0.1560630133724444</v>
+      </c>
+      <c r="R7">
+        <v>1.404567120352</v>
+      </c>
+      <c r="S7">
+        <v>0.003938932961852695</v>
+      </c>
+      <c r="T7">
+        <v>0.003938932961852695</v>
       </c>
     </row>
   </sheetData>
